--- a/public/temp/stat.xlsx
+++ b/public/temp/stat.xlsx
@@ -117,7 +117,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -181,11 +181,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>26.8.2021 10:44</t>
+          <t>2.9.2021 6:19</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -210,17 +210,17 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -231,49 +231,733 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>1.9.2021 13:13</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>1.9.2021 8:44</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>1.9.2021 8:42</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>1.9.2021 6:30</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>31.8.2021 5:53</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>29.8.2021 4:48</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>28.8.2021 13:50</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>28.8.2021 12:22</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>537748674</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Мила</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Мезенцева</t>
+        </is>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>28.8.2021 12:22</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>537748674</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Мила</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Мезенцева</t>
+        </is>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>28.8.2021 12:18</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>28.8.2021 12:18</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>27.8.2021 13:48</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>27.8.2021 9:59</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>26.8.2021 10:44</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>25.8.2021 9:5</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>151103777</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Евгений</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Сердцеедов</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Томск</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>151103777</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>2023-05-09 17:06:45</t>
         </is>

--- a/public/temp/stat.xlsx
+++ b/public/temp/stat.xlsx
@@ -117,7 +117,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -181,11 +181,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="1" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>2.9.2021 6:19</t>
+          <t>28.9.2021 3:24</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -210,12 +210,12 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
@@ -231,11 +231,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>1.9.2021 13:13</t>
+          <t>18.9.2021 4:35</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -260,12 +260,12 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -281,11 +281,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="1" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>1.9.2021 8:44</t>
+          <t>17.9.2021 16:52</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -310,12 +310,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -331,11 +331,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="1" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>1.9.2021 8:42</t>
+          <t>16.9.2021 5:22</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -360,12 +360,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -381,11 +381,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="1" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>1.9.2021 6:30</t>
+          <t>16.9.2021 4:35</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -410,12 +410,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -431,11 +431,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>31.8.2021 5:53</t>
+          <t>15.9.2021 8:31</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -460,12 +460,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -481,11 +481,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>29.8.2021 4:48</t>
+          <t>14.9.2021 7:11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -510,12 +510,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -531,11 +531,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>28.8.2021 13:50</t>
+          <t>14.9.2021 4:37</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -581,37 +581,41 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>28.8.2021 12:22</t>
+          <t>13.9.2021 15:37</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>537748674</t>
+          <t>151103777</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Мила</t>
+          <t>Евгений</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Мезенцева</t>
-        </is>
-      </c>
-      <c r="F10" s="2"/>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -619,41 +623,49 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>28.8.2021 12:22</t>
+          <t>7.9.2021 18:42</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>537748674</t>
+          <t>151103777</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Мила</t>
+          <t>Евгений</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Мезенцева</t>
-        </is>
-      </c>
-      <c r="F11" s="2"/>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -661,15 +673,19 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="1" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>28.8.2021 12:18</t>
+          <t>7.9.2021 16:1</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -694,12 +710,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -715,11 +731,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="1" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>28.8.2021 12:18</t>
+          <t>7.9.2021 15:34</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -744,12 +760,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -765,11 +781,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="1" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>27.8.2021 13:48</t>
+          <t>7.9.2021 15:2</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -794,12 +810,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -815,11 +831,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>27.8.2021 9:59</t>
+          <t>6.9.2021 13:24</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -844,12 +860,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -865,11 +881,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>26.8.2021 10:44</t>
+          <t>5.9.2021 15:20</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -894,70 +910,20 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>2023-05-09 17:06:45</t>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>25.8.2021 9:5</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>151103777</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>Евгений</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Сердцеедов</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>Томск</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>2023-05-09 17:06:45</t>
         </is>

--- a/public/temp/stat.xlsx
+++ b/public/temp/stat.xlsx
@@ -181,11 +181,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="1" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>28.9.2021 3:24</t>
+          <t>21.10.2021 12:37</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -210,12 +210,12 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
@@ -231,11 +231,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="1" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>18.9.2021 4:35</t>
+          <t>21.10.2021 12:36</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -260,12 +260,12 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -281,11 +281,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="1" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>17.9.2021 16:52</t>
+          <t>21.10.2021 9:44</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -310,12 +310,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -331,11 +331,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="1" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>16.9.2021 5:22</t>
+          <t>20.10.2021 9:13</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -360,12 +360,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -381,11 +381,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="1" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>16.9.2021 4:35</t>
+          <t>19.10.2021 13:5</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -410,12 +410,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -431,11 +431,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="1" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>15.9.2021 8:31</t>
+          <t>19.10.2021 9:13</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -460,12 +460,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -481,41 +481,37 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="1" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>14.9.2021 7:11</t>
+          <t>12.10.2021 11:32</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>151103777</t>
+          <t>537748674</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Мила</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Сердцеедов</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>Томск</t>
-        </is>
-      </c>
+          <t>Мезенцева</t>
+        </is>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -523,19 +519,15 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2023-05-09 17:06:45</t>
-        </is>
-      </c>
+      <c r="J8" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="1" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>14.9.2021 4:37</t>
+          <t>12.10.2021 11:30</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -560,12 +552,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -581,41 +573,37 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="1" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>13.9.2021 15:37</t>
+          <t>12.10.2021 11:30</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>151103777</t>
+          <t>537748674</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Мила</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Сердцеедов</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Томск</t>
-        </is>
-      </c>
+          <t>Мезенцева</t>
+        </is>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -623,49 +611,41 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2023-05-09 17:06:45</t>
-        </is>
-      </c>
+      <c r="J10" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="1" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>7.9.2021 18:42</t>
+          <t>12.10.2021 8:30</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>151103777</t>
+          <t>537748674</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Мила</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Сердцеедов</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>Томск</t>
-        </is>
-      </c>
+          <t>Мезенцева</t>
+        </is>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -673,19 +653,15 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2023-05-09 17:06:45</t>
-        </is>
-      </c>
+      <c r="J11" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="1" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>7.9.2021 16:1</t>
+          <t>12.10.2021 5:30</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -710,12 +686,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -731,11 +707,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>7.9.2021 15:34</t>
+          <t>7.10.2021 7:19</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -760,12 +736,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -781,11 +757,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="1" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>7.9.2021 15:2</t>
+          <t>7.10.2021 4:11</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -810,12 +786,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -831,11 +807,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="1" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>6.9.2021 13:24</t>
+          <t>5.10.2021 9:36</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -860,12 +836,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -881,11 +857,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>5.9.2021 15:20</t>
+          <t>5.10.2021 9:35</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -910,12 +886,12 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">

--- a/public/temp/stat.xlsx
+++ b/public/temp/stat.xlsx
@@ -181,11 +181,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="1" t="n">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>21.10.2021 12:37</t>
+          <t>21.12.2021 11:56</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -210,12 +210,12 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>165</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
@@ -231,11 +231,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="1" t="n">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>21.10.2021 12:36</t>
+          <t>20.12.2021 16:12</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -260,12 +260,12 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>164</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -281,41 +281,37 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="1" t="n">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>21.10.2021 9:44</t>
+          <t>20.12.2021 15:5</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>151103777</t>
+          <t>537748674</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Мила</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Сердцеедов</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Томск</t>
-        </is>
-      </c>
+          <t>Мезенцева</t>
+        </is>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -331,11 +327,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="1" t="n">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>20.10.2021 9:13</t>
+          <t>20.12.2021 14:58</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -360,12 +356,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>163</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -381,41 +377,37 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="1" t="n">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>19.10.2021 13:5</t>
+          <t>20.12.2021 14:45</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>151103777</t>
+          <t>537748674</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Мила</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Сердцеедов</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Томск</t>
-        </is>
-      </c>
+          <t>Мезенцева</t>
+        </is>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -431,41 +423,37 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="1" t="n">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>19.10.2021 9:13</t>
+          <t>20.12.2021 14:19</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>151103777</t>
+          <t>537748674</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Мила</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Сердцеедов</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>Томск</t>
-        </is>
-      </c>
+          <t>Мезенцева</t>
+        </is>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -481,11 +469,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="1" t="n">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>12.10.2021 11:32</t>
+          <t>20.12.2021 14:0</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -506,7 +494,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -519,45 +507,45 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="1" t="n">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>12.10.2021 11:30</t>
+          <t>20.12.2021 13:40</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>151103777</t>
+          <t>537748674</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Мила</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Сердцеедов</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Томск</t>
-        </is>
-      </c>
+          <t>Мезенцева</t>
+        </is>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -573,37 +561,41 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="1" t="n">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>12.10.2021 11:30</t>
+          <t>20.12.2021 7:18</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>537748674</t>
+          <t>151103777</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Мила</t>
+          <t>Евгений</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Мезенцева</t>
-        </is>
-      </c>
-      <c r="F10" s="2"/>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>162</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -611,41 +603,49 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="1" t="n">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>12.10.2021 8:30</t>
+          <t>17.12.2021 7:34</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>537748674</t>
+          <t>151103777</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Мила</t>
+          <t>Евгений</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Мезенцева</t>
-        </is>
-      </c>
-      <c r="F11" s="2"/>
+          <t>Сердцеедов</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Томск</t>
+        </is>
+      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>161</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -653,15 +653,19 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2023-05-09 17:06:45</t>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="1" t="n">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>12.10.2021 5:30</t>
+          <t>16.12.2021 7:31</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -686,12 +690,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>43</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -707,11 +711,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="1" t="n">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>7.10.2021 7:19</t>
+          <t>15.12.2021 5:54</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -736,12 +740,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>159</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -757,11 +761,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="1" t="n">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>7.10.2021 4:11</t>
+          <t>14.12.2021 5:27</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -786,12 +790,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>158</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -807,11 +811,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="1" t="n">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>5.10.2021 9:36</t>
+          <t>13.12.2021 6:21</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -836,12 +840,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>157</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -857,11 +861,11 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="1" t="n">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>5.10.2021 9:35</t>
+          <t>12.12.2021 6:8</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -886,12 +890,12 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>156</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
